--- a/METS-Data-Dictionary.xlsx
+++ b/METS-Data-Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100C1618-C0E7-48F2-8CB2-A14498860409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721067EA-79F6-406F-9A71-39A36C8B651B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="3" xr2:uid="{22983DE4-78BC-9F4E-8044-65DE3D8330CC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="249">
   <si>
     <t>Term</t>
   </si>
@@ -1033,9 +1033,6 @@
     <t>A short poem or piece of punctuated prose, often concluding in a sudden “turn.” The epigram originated with inscriptions on Greek funeral monuments before becoming a popular Latin art form. In medieval literature, epigrams refer to either records of inscriptions or short poems typically preceding and informing a longer work. Related terms include elegiac poetry and lyric poetry.</t>
   </si>
   <si>
-    <t>Epistolary (Poetry)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Any poem which uses the format of written correspondence as its framework. In the Middle Ages, letters belonged to the realm of formal rhetoric and were expected to be composed with a broader audience in mind. Nonetheless, many epistolary poems were devised pseudepigraphically, drawing on the reputation of a famous figure in order to communicate the importance of their message. Among the most famous examples of this genre is Ovid’s </t>
     </r>
@@ -1062,9 +1059,6 @@
     </r>
   </si>
   <si>
-    <t>Epistolary (Prose)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">A prose text which uses the format of written correspondence as its framework. In the Middle Ages, letters belonged to the realm of formal rhetoric and were expected to be composed with a broader audience in mind. </t>
     </r>
@@ -1344,9 +1338,6 @@
     </r>
   </si>
   <si>
-    <t>Lyric (Poetry)</t>
-  </si>
-  <si>
     <r>
       <t>A short poem on a singular subject.</t>
     </r>
@@ -3340,6 +3331,33 @@
       </rPr>
       <t>. Ed. Roland Greene et al. 4th edition, online. Princeton, NJ: Princeton University Press, 2017. </t>
     </r>
+  </si>
+  <si>
+    <t>Epistolary Poetry</t>
+  </si>
+  <si>
+    <t>Epistolary Prose</t>
+  </si>
+  <si>
+    <t>Lyric Poetry</t>
+  </si>
+  <si>
+    <t>Legacy HTML</t>
+  </si>
+  <si>
+    <t>Editions published before 2020, encoded in HTML, and migrated from METS’ old website. These editions preserve styles that are obsolete. All Legacy HTML editions will eventually be updated into TEI-XML.</t>
+  </si>
+  <si>
+    <t>Lyric Poetry (Marian)</t>
+  </si>
+  <si>
+    <t>A short poem of religious devotion, praising the Virgin Mary, mother of Jesus Christ and queen of heaven; they were sometimes used to celebrate Marian feast days. These lyrics or songs celebrate key events in Mary’s life, including the Annunciation, when the angel Gabriel visit her with news that she will bear the Son of God; the Nativity and Purification (frequently called the “joys of Mary”); the Crucifixion, (at which point the “sorrows of Mary” begin), and the Ascension. Other topics include the Magnificat hymn, Marian symbols like the rose and lily, and her feminine virtues such as purity, fertility, and compassion. Related terms include prayer, carol, and hymn.</t>
+  </si>
+  <si>
+    <t>TEI-XML</t>
+  </si>
+  <si>
+    <t>METS’ current encoding language for digital editions, recognizable by its Reader View, toggleable notes and glosses, and semantic tagging within the texts. Editions published in 2021 and afterwards are encoded in TEI-XML. All Legacy HTML editions will eventually be updated to TEI-XML.</t>
   </si>
 </sst>
 </file>
@@ -3477,7 +3495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3532,6 +3550,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3846,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C94D86-4ABB-5047-BA04-D249954CEC1C}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3877,10 +3896,10 @@
     </row>
     <row r="3" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -3896,7 +3915,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
@@ -3904,7 +3923,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3984,7 +4003,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
@@ -4157,435 +4176,459 @@
     </row>
     <row r="38" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>95</v>
+    </row>
+    <row r="51" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="11" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="11" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="B59" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="11" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="B60" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="11" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="189" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="11" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="B62" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="11" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="B63" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="11" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="189" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="B64" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="11" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="11" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="B66" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="12" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="B67" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="11" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="B68" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="11" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="B69" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="11" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="11" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="B71" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="11" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="B72" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="11" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="B73" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="11" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="B74" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="11" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="B75" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="11" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="11" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="B77" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="13" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="B78" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="11" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="B79" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="11" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="B80" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="11" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="B82" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="11" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="B83" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="11" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="B84" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="11" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="B85" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="11" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="B86" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="11" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
-        <v>234</v>
+      <c r="A90" s="21" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
-        <v>236</v>
+      <c r="A92" s="23" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4615,111 +4658,111 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -4752,82 +4795,82 @@
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4880,7 @@
     <row r="13" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4870,18 +4913,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4889,54 +4932,54 @@
         <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
